--- a/doc/RSS documents/ANNEX 12_Reintegration Scores Calculator.xlsx
+++ b/doc/RSS documents/ANNEX 12_Reintegration Scores Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iomint.sharepoint.com/sites/EU-IOMJointInitiative-WestandCentralAfrica/Shared Documents/Monitoring and Evaluation/RSS Guidance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanl\projects\iom2\doc\RSS documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42B4F065-B8CE-4F7F-A3BC-F4F6950E1CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073439B8-3504-4D67-BED2-B553CF3B0702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" tabRatio="681" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15430" windowHeight="21000" tabRatio="681" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User instructions" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +503,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1243,7 +1249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1454,7 +1460,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456224328"/>
@@ -1499,7 +1505,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="303761624"/>
@@ -1537,7 +1543,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2122,13 +2128,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2179,14 +2185,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="68580" rIns="0" bIns="68580" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-SN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-CH" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2210,11 +2216,11 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2260,14 +2266,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="68580" rIns="0" bIns="68580" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-SN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-CH" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2626,10 +2632,10 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.6" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
@@ -2649,19 +2655,19 @@
       <c r="P2" s="29"/>
       <c r="Q2" s="30"/>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="20"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="2:17" ht="15.6" thickBot="1">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
@@ -2681,47 +2687,47 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="23"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="50">
         <v>43160</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="49"/>
     </row>
   </sheetData>
@@ -2734,26 +2740,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="16.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="39" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="31"/>
-    <col min="13" max="13" width="12.140625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="31"/>
+    <col min="6" max="6" width="20.7265625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="31"/>
+    <col min="13" max="13" width="12.1796875" style="31" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.6" thickBot="1"/>
-    <row r="2" spans="2:17" ht="15.6" thickBot="1">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="28"/>
       <c r="C2" s="18"/>
       <c r="D2" s="32"/>
@@ -2774,7 +2780,7 @@
       <c r="P2" s="69"/>
       <c r="Q2" s="69"/>
     </row>
-    <row r="3" spans="2:17" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="2:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="34"/>
       <c r="C3" s="62" t="s">
         <v>13</v>
@@ -2806,7 +2812,7 @@
       <c r="P3" s="69"/>
       <c r="Q3" s="69"/>
     </row>
-    <row r="4" spans="2:17" s="4" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
+    <row r="4" spans="2:17" s="4" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="34"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -2826,7 +2832,7 @@
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
     </row>
-    <row r="5" spans="2:17" ht="59.1" customHeight="1">
+    <row r="5" spans="2:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="19"/>
       <c r="C5" s="57">
         <v>1</v>
@@ -2858,7 +2864,7 @@
         <v>3.7500000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="59.1" customHeight="1">
+    <row r="6" spans="2:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="19"/>
       <c r="C6" s="6">
         <v>2</v>
@@ -2886,11 +2892,11 @@
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="61">
-        <f t="shared" ref="M5:M33" si="0">F6*I6</f>
+        <f t="shared" ref="M6:M33" si="0">F6*I6</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="36" customHeight="1">
+    <row r="7" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="19"/>
       <c r="C7" s="6">
         <v>3</v>
@@ -2912,7 +2918,7 @@
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="61">
-        <f t="shared" ref="K6:K33" si="1">F7*H7</f>
+        <f t="shared" ref="K7:K32" si="1">F7*H7</f>
         <v>0.08</v>
       </c>
       <c r="L7" s="61"/>
@@ -2921,7 +2927,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="57.95" customHeight="1">
+    <row r="8" spans="2:17" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19"/>
       <c r="C8" s="6">
         <v>4</v>
@@ -2952,7 +2958,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="36" customHeight="1">
+    <row r="9" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19"/>
       <c r="C9" s="6">
         <v>5</v>
@@ -2983,7 +2989,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="59.1" customHeight="1">
+    <row r="10" spans="2:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="6">
         <v>6</v>
@@ -3014,7 +3020,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="26.1" customHeight="1">
+    <row r="11" spans="2:17" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19"/>
       <c r="C11" s="6">
         <v>7</v>
@@ -3045,7 +3051,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="36.950000000000003" customHeight="1">
+    <row r="12" spans="2:17" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="C12" s="6">
         <v>8</v>
@@ -3076,7 +3082,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
+    <row r="13" spans="2:17" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="19"/>
       <c r="C13" s="6">
         <v>9</v>
@@ -3110,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="59.1" customHeight="1">
+    <row r="14" spans="2:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19"/>
       <c r="C14" s="8">
         <v>10</v>
@@ -3141,7 +3147,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="59.1" customHeight="1">
+    <row r="15" spans="2:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19"/>
       <c r="C15" s="8">
         <v>11</v>
@@ -3172,7 +3178,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="59.1" customHeight="1">
+    <row r="16" spans="2:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19"/>
       <c r="C16" s="8">
         <v>12</v>
@@ -3203,7 +3209,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="36.950000000000003" customHeight="1">
+    <row r="17" spans="2:13" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="19"/>
       <c r="C17" s="8">
         <v>13</v>
@@ -3234,7 +3240,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="60" customHeight="1">
+    <row r="18" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="19"/>
       <c r="C18" s="8">
         <v>14</v>
@@ -3265,7 +3271,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="22.7">
+    <row r="19" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B19" s="19"/>
       <c r="C19" s="8">
         <v>15</v>
@@ -3296,7 +3302,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="59.1" customHeight="1">
+    <row r="20" spans="2:13" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="19"/>
       <c r="C20" s="8">
         <v>16</v>
@@ -3327,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="59.1" customHeight="1">
+    <row r="21" spans="2:13" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="19"/>
       <c r="C21" s="8">
         <v>17</v>
@@ -3358,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="59.1" customHeight="1">
+    <row r="22" spans="2:13" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="19"/>
       <c r="C22" s="8">
         <v>18</v>
@@ -3389,7 +3395,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="60" customHeight="1" thickBot="1">
+    <row r="23" spans="2:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="19"/>
       <c r="C23" s="8">
         <v>19</v>
@@ -3420,7 +3426,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="62.25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="19"/>
       <c r="C24" s="8">
         <v>20</v>
@@ -3455,7 +3461,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="60.95" customHeight="1">
+    <row r="25" spans="2:13" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="19"/>
       <c r="C25" s="11">
         <v>21</v>
@@ -3486,7 +3492,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="44.85">
+    <row r="26" spans="2:13" ht="43" x14ac:dyDescent="0.35">
       <c r="B26" s="19"/>
       <c r="C26" s="11">
         <v>22</v>
@@ -3517,7 +3523,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="92.1" customHeight="1">
+    <row r="27" spans="2:13" ht="92.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="19"/>
       <c r="C27" s="11">
         <v>23</v>
@@ -3548,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="44.85">
+    <row r="28" spans="2:13" ht="43" x14ac:dyDescent="0.35">
       <c r="B28" s="19"/>
       <c r="C28" s="11">
         <v>24</v>
@@ -3579,7 +3585,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="44.85">
+    <row r="29" spans="2:13" ht="43" x14ac:dyDescent="0.35">
       <c r="B29" s="19"/>
       <c r="C29" s="11">
         <v>25</v>
@@ -3610,7 +3616,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="44.85">
+    <row r="30" spans="2:13" ht="43" x14ac:dyDescent="0.35">
       <c r="B30" s="19"/>
       <c r="C30" s="11">
         <v>26</v>
@@ -3641,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="44.85">
+    <row r="31" spans="2:13" ht="43" x14ac:dyDescent="0.35">
       <c r="B31" s="19"/>
       <c r="C31" s="11">
         <v>27</v>
@@ -3672,7 +3678,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="22.7">
+    <row r="32" spans="2:13" ht="22" x14ac:dyDescent="0.35">
       <c r="B32" s="19"/>
       <c r="C32" s="11">
         <v>28</v>
@@ -3703,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="55.5" customHeight="1">
+    <row r="33" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="19"/>
       <c r="C33" s="11">
         <v>29</v>
@@ -3741,7 +3747,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="225" customHeight="1" thickBot="1">
+    <row r="34" spans="2:14" ht="225" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="19"/>
       <c r="C34" s="11">
         <v>30</v>
@@ -3760,7 +3766,7 @@
       <c r="L34" s="61"/>
       <c r="M34" s="61"/>
     </row>
-    <row r="35" spans="2:14" ht="15.6" thickBot="1">
+    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="22"/>
       <c r="C35" s="36"/>
       <c r="D35" s="37"/>
@@ -3795,17 +3801,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.6" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -3827,7 +3833,7 @@
         <v>0.6349999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>72</v>
@@ -3847,7 +3853,7 @@
         <v>0.74499999999999988</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="19"/>
       <c r="C4" t="s">
         <v>75</v>
@@ -3867,7 +3873,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15.6" thickBot="1">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19"/>
       <c r="N5" s="20"/>
       <c r="P5" t="s">
@@ -3878,7 +3884,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="15.6" thickBot="1">
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="19"/>
       <c r="C6" s="24">
         <f>SUM('Data entry'!K5:K13)</f>
@@ -3900,18 +3906,18 @@
       </c>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="19"/>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="19"/>
       <c r="C8" t="s">
         <v>77</v>
       </c>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="19"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3926,29 +3932,29 @@
       <c r="M9" s="2"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="19"/>
       <c r="C11" s="1" t="s">
         <v>76</v>
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="C12" t="s">
         <v>75</v>
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="2:17" ht="15.6" thickBot="1">
+    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="19"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="2:17" ht="15.6" thickBot="1">
+    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="19"/>
       <c r="C14" s="27">
         <f>SUM('Data entry'!M5:M34)</f>
@@ -3956,15 +3962,15 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="19"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="19"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="2:14" ht="15.6" thickBot="1">
+    <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="22"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -3979,7 +3985,7 @@
       <c r="M17" s="21"/>
       <c r="N17" s="23"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
@@ -3988,7 +3994,7 @@
       </c>
       <c r="J19" s="45"/>
     </row>
-    <row r="21" spans="2:14" ht="15.6" thickBot="1">
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D21" s="46"/>
       <c r="E21" s="47" t="s">
         <v>80</v>
@@ -3996,7 +4002,7 @@
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
     </row>
-    <row r="22" spans="2:14" ht="15.6" thickBot="1">
+    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D22" s="48" t="s">
         <v>81</v>
       </c>
@@ -4024,13 +4030,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4048,11 +4054,11 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4068,12 +4074,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="58e39c26-2a54-4a8f-82ac-5891dd99d3dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="93f9c5ef-5ba7-4924-a8df-5ae357b0ff2b" xsi:nil="true"/>
+    <Document_x0020_Classification xmlns="93f9c5ef-5ba7-4924-a8df-5ae357b0ff2b">Restricted / Internal Use</Document_x0020_Classification>
+    <Date xmlns="58e39c26-2a54-4a8f-82ac-5891dd99d3dc" xsi:nil="true"/>
+    <Document_x0020_Type xmlns="58e39c26-2a54-4a8f-82ac-5891dd99d3dc" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="93f9c5ef-5ba7-4924-a8df-5ae357b0ff2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <AlejandroBarba xmlns="58e39c26-2a54-4a8f-82ac-5891dd99d3dc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </AlejandroBarba>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4432,38 +4454,50 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="58e39c26-2a54-4a8f-82ac-5891dd99d3dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="93f9c5ef-5ba7-4924-a8df-5ae357b0ff2b" xsi:nil="true"/>
-    <Document_x0020_Classification xmlns="93f9c5ef-5ba7-4924-a8df-5ae357b0ff2b">Restricted / Internal Use</Document_x0020_Classification>
-    <Date xmlns="58e39c26-2a54-4a8f-82ac-5891dd99d3dc" xsi:nil="true"/>
-    <Document_x0020_Type xmlns="58e39c26-2a54-4a8f-82ac-5891dd99d3dc" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="93f9c5ef-5ba7-4924-a8df-5ae357b0ff2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <AlejandroBarba xmlns="58e39c26-2a54-4a8f-82ac-5891dd99d3dc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </AlejandroBarba>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF4A2D6-2CCC-42E5-BAE3-96F1FE3E4760}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F88D5EF-B1F8-4495-ABC5-526CE3B7FA3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="58e39c26-2a54-4a8f-82ac-5891dd99d3dc"/>
+    <ds:schemaRef ds:uri="93f9c5ef-5ba7-4924-a8df-5ae357b0ff2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D0D397-5680-4DC8-ABC9-595A98F91DEF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D0D397-5680-4DC8-ABC9-595A98F91DEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="58e39c26-2a54-4a8f-82ac-5891dd99d3dc"/>
+    <ds:schemaRef ds:uri="93f9c5ef-5ba7-4924-a8df-5ae357b0ff2b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F88D5EF-B1F8-4495-ABC5-526CE3B7FA3F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF4A2D6-2CCC-42E5-BAE3-96F1FE3E4760}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>